--- a/05_DvojnaSonda/data/DvojnaSonda.xlsx
+++ b/05_DvojnaSonda/data/DvojnaSonda.xlsx
@@ -8,21 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Desktop\Škola Mgr\Praktikum plazma\PraktikaPlazma\05_DvojnaSonda\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC41F68-21D6-45B9-85DA-1F22EAB2881C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778A9AB3-FD00-49AE-9D55-847264E19273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="List2" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>jednoducha 1</t>
   </si>
@@ -53,12 +66,105 @@
   <si>
     <t>dvojna 4</t>
   </si>
+  <si>
+    <t>spodni</t>
+  </si>
+  <si>
+    <t>Equation</t>
+  </si>
+  <si>
+    <t>y = a + b*x</t>
+  </si>
+  <si>
+    <t>Plot</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>No Weighting</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>-7,96091 ± 0,0318</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>0,40137 ± 0,00323</t>
+  </si>
+  <si>
+    <t>Residual Sum of Squares</t>
+  </si>
+  <si>
+    <t>Pearson's r</t>
+  </si>
+  <si>
+    <t>R-Square (COD)</t>
+  </si>
+  <si>
+    <t>Adj. R-Square</t>
+  </si>
+  <si>
+    <t>horni</t>
+  </si>
+  <si>
+    <t>7,81444 ± 0,02698</t>
+  </si>
+  <si>
+    <t>0,36876 ± 0,00263</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>Ip2</t>
+  </si>
+  <si>
+    <t>ie2</t>
+  </si>
+  <si>
+    <t>Ip1</t>
+  </si>
+  <si>
+    <t>střed</t>
+  </si>
+  <si>
+    <t>-0,60241 ± 0,04245</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>R0</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,16 +173,36 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -84,13 +210,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -431,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM622"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR548" workbookViewId="0">
-      <selection activeCell="BH572" sqref="BH572:BM580"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1:AL1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50995,12 +51222,2226 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F276"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>-31</v>
+      </c>
+      <c r="F2">
+        <v>225.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>-31</v>
+      </c>
+      <c r="F3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>-31</v>
+      </c>
+      <c r="F4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>-31</v>
+      </c>
+      <c r="F5">
+        <v>224.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>-31</v>
+      </c>
+      <c r="F6">
+        <v>223.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>-31.1</v>
+      </c>
+      <c r="F7">
+        <v>220.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>-31.2</v>
+      </c>
+      <c r="F8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>-31.2</v>
+      </c>
+      <c r="F9">
+        <v>214.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>-31.3</v>
+      </c>
+      <c r="F10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>-31.4</v>
+      </c>
+      <c r="F11">
+        <v>204.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>-31.5</v>
+      </c>
+      <c r="F12">
+        <v>200.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>-31.5</v>
+      </c>
+      <c r="F13">
+        <v>197.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>-31.6</v>
+      </c>
+      <c r="F14">
+        <v>194.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>-31.6</v>
+      </c>
+      <c r="F15">
+        <v>192.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>-31.8</v>
+      </c>
+      <c r="F16">
+        <v>193.4</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>-31.9</v>
+      </c>
+      <c r="F17">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>-32</v>
+      </c>
+      <c r="F18">
+        <v>187.8</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>-32.1</v>
+      </c>
+      <c r="F19">
+        <v>183.7</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>-32.1</v>
+      </c>
+      <c r="F20">
+        <v>180.3</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="F21">
+        <v>172.3</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="F22">
+        <v>170.9</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>-32.4</v>
+      </c>
+      <c r="F23">
+        <v>165.2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>-32.5</v>
+      </c>
+      <c r="F24">
+        <v>162.30000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>-32.6</v>
+      </c>
+      <c r="F25">
+        <v>160.6</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="F26">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="F27">
+        <v>160.1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>-32.9</v>
+      </c>
+      <c r="F28">
+        <v>158.1</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>-33</v>
+      </c>
+      <c r="F29">
+        <v>154.5</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>-33.1</v>
+      </c>
+      <c r="F30">
+        <v>151.30000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="F31">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="F32">
+        <v>142.19999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="F33">
+        <v>141.6</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>-33.4</v>
+      </c>
+      <c r="F34">
+        <v>139.30000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>-33.5</v>
+      </c>
+      <c r="F35">
+        <v>138.30000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>-33.6</v>
+      </c>
+      <c r="F36">
+        <v>138.1</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>-33.6</v>
+      </c>
+      <c r="F37">
+        <v>136.30000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="F38">
+        <v>133.19999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>-33.9</v>
+      </c>
+      <c r="F39">
+        <v>131.69999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>-33.9</v>
+      </c>
+      <c r="F40">
+        <v>129.4</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>-34.1</v>
+      </c>
+      <c r="F41">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="F42">
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="F43">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="F44">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>-34.4</v>
+      </c>
+      <c r="F45">
+        <v>113.9</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>-34.5</v>
+      </c>
+      <c r="F46">
+        <v>116.8</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>-34.6</v>
+      </c>
+      <c r="F47">
+        <v>115.1</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="F48">
+        <v>112.4</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="F49">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>-34.9</v>
+      </c>
+      <c r="F50">
+        <v>109.1</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>-34.9</v>
+      </c>
+      <c r="F51">
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>-35</v>
+      </c>
+      <c r="F52">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>-35.1</v>
+      </c>
+      <c r="F53">
+        <v>99.4</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="F54">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="F55">
+        <v>96.4</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="F56">
+        <v>98.4</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>-35.5</v>
+      </c>
+      <c r="F57">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>-35.5</v>
+      </c>
+      <c r="F58">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>-35.6</v>
+      </c>
+      <c r="F59">
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="F60">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="F61">
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>-35.9</v>
+      </c>
+      <c r="F62">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>-36</v>
+      </c>
+      <c r="F63">
+        <v>82.1</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>-36.1</v>
+      </c>
+      <c r="F64">
+        <v>80.900000000000006</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="F65">
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="F66">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="F67">
+        <v>80.7</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>-36.4</v>
+      </c>
+      <c r="F68">
+        <v>79.099999999999994</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>-36.6</v>
+      </c>
+      <c r="F69">
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="F70">
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="F71">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="F72">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>-36.9</v>
+      </c>
+      <c r="F73">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>-37</v>
+      </c>
+      <c r="F74">
+        <v>66.599999999999994</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>-37</v>
+      </c>
+      <c r="F75">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="F76">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>-37.299999999999997</v>
+      </c>
+      <c r="F77">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>-37.4</v>
+      </c>
+      <c r="F78">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>-37.4</v>
+      </c>
+      <c r="F79">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>-37.5</v>
+      </c>
+      <c r="F80">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>-37.6</v>
+      </c>
+      <c r="F81">
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>-37.700000000000003</v>
+      </c>
+      <c r="F82">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="F83">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>-37.9</v>
+      </c>
+      <c r="F84">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>-38</v>
+      </c>
+      <c r="F85">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>-38.1</v>
+      </c>
+      <c r="F86">
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="F87">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>-38.299999999999997</v>
+      </c>
+      <c r="F88">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>-38.4</v>
+      </c>
+      <c r="F89">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>-38.5</v>
+      </c>
+      <c r="F90">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>-38.5</v>
+      </c>
+      <c r="F91">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>-38.6</v>
+      </c>
+      <c r="F92">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="93" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>-38.799999999999997</v>
+      </c>
+      <c r="F93">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>-38.799999999999997</v>
+      </c>
+      <c r="F94">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>-38.9</v>
+      </c>
+      <c r="F95">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>-39</v>
+      </c>
+      <c r="F96">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>-39.1</v>
+      </c>
+      <c r="F97">
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>-39.200000000000003</v>
+      </c>
+      <c r="F98">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="F99">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>-39.4</v>
+      </c>
+      <c r="F100">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>-39.5</v>
+      </c>
+      <c r="F101">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>-39.6</v>
+      </c>
+      <c r="F102">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>-39.700000000000003</v>
+      </c>
+      <c r="F103">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="F104">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>-39.9</v>
+      </c>
+      <c r="F105">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>-40</v>
+      </c>
+      <c r="F106">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>-40.1</v>
+      </c>
+      <c r="F107">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="108" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>-40.200000000000003</v>
+      </c>
+      <c r="F108">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>-40.200000000000003</v>
+      </c>
+      <c r="F109">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>-40.299999999999997</v>
+      </c>
+      <c r="F110">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>-40.5</v>
+      </c>
+      <c r="F111">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>-40.5</v>
+      </c>
+      <c r="F112">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>-40.6</v>
+      </c>
+      <c r="F113">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>-40.700000000000003</v>
+      </c>
+      <c r="F114">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>-40.799999999999997</v>
+      </c>
+      <c r="F115">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>-40.9</v>
+      </c>
+      <c r="F116">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>-41</v>
+      </c>
+      <c r="F117">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>-41</v>
+      </c>
+      <c r="F118">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>-41.2</v>
+      </c>
+      <c r="F119">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>-41.3</v>
+      </c>
+      <c r="F120">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>-41.4</v>
+      </c>
+      <c r="F121">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>-41.4</v>
+      </c>
+      <c r="F122">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>-41.6</v>
+      </c>
+      <c r="F123">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>-41.7</v>
+      </c>
+      <c r="F124">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="125" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>-41.7</v>
+      </c>
+      <c r="F125">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>-41.8</v>
+      </c>
+      <c r="F126">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="127" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>-41.9</v>
+      </c>
+      <c r="F127">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>-42</v>
+      </c>
+      <c r="F128">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>-42.1</v>
+      </c>
+      <c r="F129">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>-42.2</v>
+      </c>
+      <c r="F130">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>-42.3</v>
+      </c>
+      <c r="F131">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>-42.4</v>
+      </c>
+      <c r="F132">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>-42.5</v>
+      </c>
+      <c r="F133">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>-42.6</v>
+      </c>
+      <c r="F134">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="135" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>-42.7</v>
+      </c>
+      <c r="F135">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="136" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>-42.8</v>
+      </c>
+      <c r="F136">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="137" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>-42.9</v>
+      </c>
+      <c r="F137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>-43</v>
+      </c>
+      <c r="F138">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="139" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>-43.1</v>
+      </c>
+      <c r="F139">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="140" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>-43.1</v>
+      </c>
+      <c r="F140">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="141" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <v>-43.3</v>
+      </c>
+      <c r="F141">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="142" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>-43.4</v>
+      </c>
+      <c r="F142">
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="143" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>-43.4</v>
+      </c>
+      <c r="F143">
+        <v>-3.6</v>
+      </c>
+    </row>
+    <row r="144" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>-43.6</v>
+      </c>
+      <c r="F144">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>-43.6</v>
+      </c>
+      <c r="F145">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>-43.7</v>
+      </c>
+      <c r="F146">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="147" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <v>-43.8</v>
+      </c>
+      <c r="F147">
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="148" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <v>-43.9</v>
+      </c>
+      <c r="F148">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="149" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <v>-44</v>
+      </c>
+      <c r="F149">
+        <v>-3.9</v>
+      </c>
+    </row>
+    <row r="150" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <v>-44.1</v>
+      </c>
+      <c r="F150">
+        <v>-4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="151" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>-44.2</v>
+      </c>
+      <c r="F151">
+        <v>-8.4</v>
+      </c>
+    </row>
+    <row r="152" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>-44.3</v>
+      </c>
+      <c r="F152">
+        <v>-8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="153" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>-44.4</v>
+      </c>
+      <c r="F153">
+        <v>-9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="154" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>-44.5</v>
+      </c>
+      <c r="F154">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="155" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <v>-44.6</v>
+      </c>
+      <c r="F155">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="156" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>-44.7</v>
+      </c>
+      <c r="F156">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="157" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <v>-44.8</v>
+      </c>
+      <c r="F157">
+        <v>-8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="158" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>-44.9</v>
+      </c>
+      <c r="F158">
+        <v>-9.1</v>
+      </c>
+    </row>
+    <row r="159" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>-45</v>
+      </c>
+      <c r="F159">
+        <v>-9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="160" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>-45</v>
+      </c>
+      <c r="F160">
+        <v>-10.199999999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <v>-45.1</v>
+      </c>
+      <c r="F161">
+        <v>-13.6</v>
+      </c>
+    </row>
+    <row r="162" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <v>-45.2</v>
+      </c>
+      <c r="F162">
+        <v>-13.9</v>
+      </c>
+    </row>
+    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <v>-45.3</v>
+      </c>
+      <c r="F163">
+        <v>-14.2</v>
+      </c>
+    </row>
+    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <v>-45.4</v>
+      </c>
+      <c r="F164">
+        <v>-14.7</v>
+      </c>
+    </row>
+    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <v>-45.5</v>
+      </c>
+      <c r="F165">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D166">
+        <v>-45.6</v>
+      </c>
+      <c r="F166">
+        <v>-13.4</v>
+      </c>
+    </row>
+    <row r="167" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D167">
+        <v>-45.7</v>
+      </c>
+      <c r="F167">
+        <v>-13.7</v>
+      </c>
+    </row>
+    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <v>-45.8</v>
+      </c>
+      <c r="F168">
+        <v>-14.3</v>
+      </c>
+    </row>
+    <row r="169" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <v>-45.9</v>
+      </c>
+      <c r="F169">
+        <v>-14.6</v>
+      </c>
+    </row>
+    <row r="170" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <v>-46</v>
+      </c>
+      <c r="F170">
+        <v>-15.1</v>
+      </c>
+    </row>
+    <row r="171" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>-46.1</v>
+      </c>
+      <c r="F171">
+        <v>-17.5</v>
+      </c>
+    </row>
+    <row r="172" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D172">
+        <v>-46.2</v>
+      </c>
+      <c r="F172">
+        <v>-17.600000000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <v>-46.2</v>
+      </c>
+      <c r="F173">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="174" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <v>-46.4</v>
+      </c>
+      <c r="F174">
+        <v>-18.399999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D175">
+        <v>-46.5</v>
+      </c>
+      <c r="F175">
+        <v>-18.5</v>
+      </c>
+    </row>
+    <row r="176" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <v>-46.5</v>
+      </c>
+      <c r="F176">
+        <v>-17.3</v>
+      </c>
+    </row>
+    <row r="177" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <v>-46.6</v>
+      </c>
+      <c r="F177">
+        <v>-17.7</v>
+      </c>
+    </row>
+    <row r="178" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <v>-46.7</v>
+      </c>
+      <c r="F178">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="179" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <v>-46.8</v>
+      </c>
+      <c r="F179">
+        <v>-18.3</v>
+      </c>
+    </row>
+    <row r="180" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D180">
+        <v>-46.9</v>
+      </c>
+      <c r="F180">
+        <v>-18.600000000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D181">
+        <v>-47</v>
+      </c>
+      <c r="F181">
+        <v>-20.2</v>
+      </c>
+    </row>
+    <row r="182" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D182">
+        <v>-47.1</v>
+      </c>
+      <c r="F182">
+        <v>-20.5</v>
+      </c>
+    </row>
+    <row r="183" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D183">
+        <v>-47.2</v>
+      </c>
+      <c r="F183">
+        <v>-20.6</v>
+      </c>
+    </row>
+    <row r="184" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D184">
+        <v>-47.3</v>
+      </c>
+      <c r="F184">
+        <v>-20.9</v>
+      </c>
+    </row>
+    <row r="185" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D185">
+        <v>-47.4</v>
+      </c>
+      <c r="F185">
+        <v>-20.5</v>
+      </c>
+    </row>
+    <row r="186" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D186">
+        <v>-47.5</v>
+      </c>
+      <c r="F186">
+        <v>-20.2</v>
+      </c>
+    </row>
+    <row r="187" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D187">
+        <v>-47.6</v>
+      </c>
+      <c r="F187">
+        <v>-20.399999999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D188">
+        <v>-47.7</v>
+      </c>
+      <c r="F188">
+        <v>-20.7</v>
+      </c>
+    </row>
+    <row r="189" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D189">
+        <v>-47.7</v>
+      </c>
+      <c r="F189">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="190" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D190">
+        <v>-47.8</v>
+      </c>
+      <c r="F190">
+        <v>-21.2</v>
+      </c>
+    </row>
+    <row r="191" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D191">
+        <v>-47.9</v>
+      </c>
+      <c r="F191">
+        <v>-21.4</v>
+      </c>
+    </row>
+    <row r="192" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D192">
+        <v>-48.1</v>
+      </c>
+      <c r="F192">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="193" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D193">
+        <v>-48.1</v>
+      </c>
+      <c r="F193">
+        <v>-22.5</v>
+      </c>
+    </row>
+    <row r="194" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D194">
+        <v>-48.2</v>
+      </c>
+      <c r="F194">
+        <v>-22.6</v>
+      </c>
+    </row>
+    <row r="195" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D195">
+        <v>-48.4</v>
+      </c>
+      <c r="F195">
+        <v>-22.8</v>
+      </c>
+    </row>
+    <row r="196" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D196">
+        <v>-48.4</v>
+      </c>
+      <c r="F196">
+        <v>-22.5</v>
+      </c>
+    </row>
+    <row r="197" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D197">
+        <v>-48.5</v>
+      </c>
+      <c r="F197">
+        <v>-22.5</v>
+      </c>
+    </row>
+    <row r="198" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D198">
+        <v>-48.6</v>
+      </c>
+      <c r="F198">
+        <v>-22.7</v>
+      </c>
+    </row>
+    <row r="199" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D199">
+        <v>-48.7</v>
+      </c>
+      <c r="F199">
+        <v>-22.9</v>
+      </c>
+    </row>
+    <row r="200" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D200">
+        <v>-48.8</v>
+      </c>
+      <c r="F200">
+        <v>-23.2</v>
+      </c>
+    </row>
+    <row r="201" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D201">
+        <v>-48.9</v>
+      </c>
+      <c r="F201">
+        <v>-23.3</v>
+      </c>
+    </row>
+    <row r="202" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <v>-49</v>
+      </c>
+      <c r="F202">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="203" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D203">
+        <v>-49.1</v>
+      </c>
+      <c r="F203">
+        <v>-24.1</v>
+      </c>
+    </row>
+    <row r="204" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D204">
+        <v>-49.2</v>
+      </c>
+      <c r="F204">
+        <v>-24.2</v>
+      </c>
+    </row>
+    <row r="205" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D205">
+        <v>-49.3</v>
+      </c>
+      <c r="F205">
+        <v>-24.3</v>
+      </c>
+    </row>
+    <row r="206" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D206">
+        <v>-49.4</v>
+      </c>
+      <c r="F206">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="207" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D207">
+        <v>-49.4</v>
+      </c>
+      <c r="F207">
+        <v>-24.1</v>
+      </c>
+    </row>
+    <row r="208" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D208">
+        <v>-49.6</v>
+      </c>
+      <c r="F208">
+        <v>-24.2</v>
+      </c>
+    </row>
+    <row r="209" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D209">
+        <v>-49.7</v>
+      </c>
+      <c r="F209">
+        <v>-24.4</v>
+      </c>
+    </row>
+    <row r="210" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D210">
+        <v>-49.7</v>
+      </c>
+      <c r="F210">
+        <v>-24.6</v>
+      </c>
+    </row>
+    <row r="211" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D211">
+        <v>-49.8</v>
+      </c>
+      <c r="F211">
+        <v>-24.8</v>
+      </c>
+    </row>
+    <row r="212" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D212">
+        <v>-49.9</v>
+      </c>
+      <c r="F212">
+        <v>-25.1</v>
+      </c>
+    </row>
+    <row r="213" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D213">
+        <v>-50</v>
+      </c>
+      <c r="F213">
+        <v>-25.3</v>
+      </c>
+    </row>
+    <row r="214" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D214">
+        <v>-50.1</v>
+      </c>
+      <c r="F214">
+        <v>-25.4</v>
+      </c>
+    </row>
+    <row r="215" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D215">
+        <v>-50.2</v>
+      </c>
+      <c r="F215">
+        <v>-25.4</v>
+      </c>
+    </row>
+    <row r="216" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D216">
+        <v>-50.3</v>
+      </c>
+      <c r="F216">
+        <v>-25.4</v>
+      </c>
+    </row>
+    <row r="217" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D217">
+        <v>-50.4</v>
+      </c>
+      <c r="F217">
+        <v>-25.4</v>
+      </c>
+    </row>
+    <row r="218" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D218">
+        <v>-50.5</v>
+      </c>
+      <c r="F218">
+        <v>-25.5</v>
+      </c>
+    </row>
+    <row r="219" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D219">
+        <v>-50.6</v>
+      </c>
+      <c r="F219">
+        <v>-25.5</v>
+      </c>
+    </row>
+    <row r="220" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D220">
+        <v>-50.7</v>
+      </c>
+      <c r="F220">
+        <v>-25.7</v>
+      </c>
+    </row>
+    <row r="221" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D221">
+        <v>-50.8</v>
+      </c>
+      <c r="F221">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="222" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D222">
+        <v>-50.9</v>
+      </c>
+      <c r="F222">
+        <v>-26.2</v>
+      </c>
+    </row>
+    <row r="223" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D223">
+        <v>-51</v>
+      </c>
+      <c r="F223">
+        <v>-26.3</v>
+      </c>
+    </row>
+    <row r="224" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D224">
+        <v>-51.1</v>
+      </c>
+      <c r="F224">
+        <v>-26.3</v>
+      </c>
+    </row>
+    <row r="225" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D225">
+        <v>-51.1</v>
+      </c>
+      <c r="F225">
+        <v>-26.4</v>
+      </c>
+    </row>
+    <row r="226" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D226">
+        <v>-51.3</v>
+      </c>
+      <c r="F226">
+        <v>-26.4</v>
+      </c>
+    </row>
+    <row r="227" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D227">
+        <v>-51.4</v>
+      </c>
+      <c r="F227">
+        <v>-26.5</v>
+      </c>
+    </row>
+    <row r="228" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D228">
+        <v>-51.5</v>
+      </c>
+      <c r="F228">
+        <v>-26.5</v>
+      </c>
+    </row>
+    <row r="229" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D229">
+        <v>-51.5</v>
+      </c>
+      <c r="F229">
+        <v>-26.5</v>
+      </c>
+    </row>
+    <row r="230" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D230">
+        <v>-51.6</v>
+      </c>
+      <c r="F230">
+        <v>-26.7</v>
+      </c>
+    </row>
+    <row r="231" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D231">
+        <v>-51.7</v>
+      </c>
+      <c r="F231">
+        <v>-26.9</v>
+      </c>
+    </row>
+    <row r="232" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D232">
+        <v>-51.8</v>
+      </c>
+      <c r="F232">
+        <v>-27.1</v>
+      </c>
+    </row>
+    <row r="233" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D233">
+        <v>-52</v>
+      </c>
+      <c r="F233">
+        <v>-27.1</v>
+      </c>
+    </row>
+    <row r="234" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D234">
+        <v>-52</v>
+      </c>
+      <c r="F234">
+        <v>-27.3</v>
+      </c>
+    </row>
+    <row r="235" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D235">
+        <v>-52.1</v>
+      </c>
+      <c r="F235">
+        <v>-27.3</v>
+      </c>
+    </row>
+    <row r="236" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D236">
+        <v>-52.2</v>
+      </c>
+      <c r="F236">
+        <v>-27.3</v>
+      </c>
+    </row>
+    <row r="237" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D237">
+        <v>-52.3</v>
+      </c>
+      <c r="F237">
+        <v>-27.3</v>
+      </c>
+    </row>
+    <row r="238" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D238">
+        <v>-52.4</v>
+      </c>
+      <c r="F238">
+        <v>-27.5</v>
+      </c>
+    </row>
+    <row r="239" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D239">
+        <v>-52.5</v>
+      </c>
+      <c r="F239">
+        <v>-27.5</v>
+      </c>
+    </row>
+    <row r="240" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D240">
+        <v>-52.6</v>
+      </c>
+      <c r="F240">
+        <v>-27.6</v>
+      </c>
+    </row>
+    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D241">
+        <v>-52.7</v>
+      </c>
+      <c r="F241">
+        <v>-27.8</v>
+      </c>
+    </row>
+    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D242">
+        <v>-52.8</v>
+      </c>
+      <c r="F242">
+        <v>-27.8</v>
+      </c>
+    </row>
+    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D243">
+        <v>-52.9</v>
+      </c>
+      <c r="F243">
+        <v>-27.9</v>
+      </c>
+    </row>
+    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D244">
+        <v>-52.9</v>
+      </c>
+      <c r="F244">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D245">
+        <v>-53.1</v>
+      </c>
+      <c r="F245">
+        <v>-28.1</v>
+      </c>
+    </row>
+    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D246">
+        <v>-53.1</v>
+      </c>
+      <c r="F246">
+        <v>-28.1</v>
+      </c>
+    </row>
+    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D247">
+        <v>-53.2</v>
+      </c>
+      <c r="F247">
+        <v>-28.2</v>
+      </c>
+    </row>
+    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D248">
+        <v>-53.3</v>
+      </c>
+      <c r="F248">
+        <v>-28.2</v>
+      </c>
+    </row>
+    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D249">
+        <v>-53.5</v>
+      </c>
+      <c r="F249">
+        <v>-28.3</v>
+      </c>
+    </row>
+    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D250">
+        <v>-53.5</v>
+      </c>
+      <c r="F250">
+        <v>-28.3</v>
+      </c>
+    </row>
+    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D251">
+        <v>-53.6</v>
+      </c>
+      <c r="F251">
+        <v>-28.5</v>
+      </c>
+    </row>
+    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D252">
+        <v>-53.7</v>
+      </c>
+      <c r="F252">
+        <v>-28.6</v>
+      </c>
+    </row>
+    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D253">
+        <v>-53.8</v>
+      </c>
+      <c r="F253">
+        <v>-28.7</v>
+      </c>
+    </row>
+    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D254">
+        <v>-53.9</v>
+      </c>
+      <c r="F254">
+        <v>-28.8</v>
+      </c>
+    </row>
+    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D255">
+        <v>-54</v>
+      </c>
+      <c r="F255">
+        <v>-28.8</v>
+      </c>
+    </row>
+    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D256">
+        <v>-54.1</v>
+      </c>
+      <c r="F256">
+        <v>-28.8</v>
+      </c>
+    </row>
+    <row r="257" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D257">
+        <v>-54.2</v>
+      </c>
+      <c r="F257">
+        <v>-28.9</v>
+      </c>
+    </row>
+    <row r="258" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D258">
+        <v>-54.3</v>
+      </c>
+      <c r="F258">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="259" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D259">
+        <v>-54.4</v>
+      </c>
+      <c r="F259">
+        <v>-29.1</v>
+      </c>
+    </row>
+    <row r="260" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D260">
+        <v>-54.5</v>
+      </c>
+      <c r="F260">
+        <v>-29.1</v>
+      </c>
+    </row>
+    <row r="261" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D261">
+        <v>-54.6</v>
+      </c>
+      <c r="F261">
+        <v>-29.2</v>
+      </c>
+    </row>
+    <row r="262" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D262">
+        <v>-54.7</v>
+      </c>
+      <c r="F262">
+        <v>-29.3</v>
+      </c>
+    </row>
+    <row r="263" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D263">
+        <v>-54.8</v>
+      </c>
+      <c r="F263">
+        <v>-29.4</v>
+      </c>
+    </row>
+    <row r="264" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D264">
+        <v>-54.9</v>
+      </c>
+      <c r="F264">
+        <v>-29.5</v>
+      </c>
+    </row>
+    <row r="265" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D265">
+        <v>-55</v>
+      </c>
+      <c r="F265">
+        <v>-29.5</v>
+      </c>
+    </row>
+    <row r="266" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D266">
+        <v>-55.1</v>
+      </c>
+      <c r="F266">
+        <v>-29.6</v>
+      </c>
+    </row>
+    <row r="267" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D267">
+        <v>-55.2</v>
+      </c>
+      <c r="F267">
+        <v>-29.6</v>
+      </c>
+    </row>
+    <row r="268" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D268">
+        <v>-55.3</v>
+      </c>
+      <c r="F268">
+        <v>-29.7</v>
+      </c>
+    </row>
+    <row r="269" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D269">
+        <v>-55.3</v>
+      </c>
+      <c r="F269">
+        <v>-29.8</v>
+      </c>
+    </row>
+    <row r="270" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D270">
+        <v>-55.4</v>
+      </c>
+      <c r="F270">
+        <v>-29.9</v>
+      </c>
+    </row>
+    <row r="271" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D271">
+        <v>-55.6</v>
+      </c>
+      <c r="F271">
+        <v>-29.9</v>
+      </c>
+    </row>
+    <row r="272" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D272">
+        <v>-55.6</v>
+      </c>
+      <c r="F272">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="273" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D273">
+        <v>-55.7</v>
+      </c>
+      <c r="F273">
+        <v>-30.1</v>
+      </c>
+    </row>
+    <row r="274" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D274">
+        <v>-55.8</v>
+      </c>
+      <c r="F274">
+        <v>-30.2</v>
+      </c>
+    </row>
+    <row r="275" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D275">
+        <v>-55.9</v>
+      </c>
+      <c r="F275">
+        <v>-30.2</v>
+      </c>
+    </row>
+    <row r="276" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D276">
+        <v>-56</v>
+      </c>
+      <c r="F276">
+        <v>-30.3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -51012,7 +53453,3649 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9E16B5-6094-41DE-BA32-836C331B24B4}">
+  <dimension ref="A1:P280"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>12.82</v>
+      </c>
+      <c r="D2">
+        <v>-12.5</v>
+      </c>
+      <c r="E2">
+        <f>D2*-1</f>
+        <v>12.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>12.82</v>
+      </c>
+      <c r="D3">
+        <v>-12.5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">D3*-1</f>
+        <v>12.5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="10">
+        <f>1.38E-23</f>
+        <v>1.3800000000000001E-23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>12.82</v>
+      </c>
+      <c r="D4">
+        <v>-12.5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4">
+        <f>1.602E-19</f>
+        <v>1.602E-19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>12.79</v>
+      </c>
+      <c r="D5">
+        <v>-12.5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5">
+        <f>9.1E-31</f>
+        <v>9.1000000000000001E-31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>12.8</v>
+      </c>
+      <c r="D6">
+        <v>-12.5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6">
+        <f>(P4*(K17-K17^2)*K16*(H13*-1+K13))/P3</f>
+        <v>10508.022595103979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>12.79</v>
+      </c>
+      <c r="D7">
+        <v>-12.5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="5">
+        <v>4.4117199999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="36" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>12.64</v>
+      </c>
+      <c r="D8">
+        <v>-12.5</v>
+      </c>
+      <c r="E8">
+        <f>D8*-1</f>
+        <v>12.5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.15146000000000001</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="5">
+        <v>9.6930000000000002E-2</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0.39412000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>12.52</v>
+      </c>
+      <c r="D9">
+        <v>-12.4</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>12.4</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.99834999999999996</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.99714999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>12.45</v>
+      </c>
+      <c r="D10">
+        <v>-12.4</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>12.4</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.99580999999999997</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.99668999999999996</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0.99429999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>12.35</v>
+      </c>
+      <c r="D11">
+        <v>-12.4</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>12.4</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.99573999999999996</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.99663999999999997</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0.99392999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>12.25</v>
+      </c>
+      <c r="D12">
+        <v>-12.3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>12.3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12">
+        <v>-1.86</v>
+      </c>
+      <c r="H12">
+        <f>G12/5</f>
+        <v>-0.372</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="K12">
+        <f>J12/5</f>
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>12.18</v>
+      </c>
+      <c r="D13">
+        <v>-12.3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>12.3</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="9">
+        <v>-8.11</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="9">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>12.06</v>
+      </c>
+      <c r="D14">
+        <v>-12.3</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>11.92</v>
+      </c>
+      <c r="D15">
+        <v>-12.2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>12.2</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="9">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15">
+        <f>H13*-1+H15</f>
+        <v>7.5399999999999991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>11.89</v>
+      </c>
+      <c r="D16">
+        <v>-12.2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>12.2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16">
+        <f>1/N7</f>
+        <v>0.22666896357883093</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>11.76</v>
+      </c>
+      <c r="D17">
+        <v>-12.2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>12.2</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17">
+        <f>K15/(H13*-1+K13)</f>
+        <v>0.47036805988771047</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>11.65</v>
+      </c>
+      <c r="D18">
+        <v>-12.1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>11.58</v>
+      </c>
+      <c r="D19">
+        <v>-12.1</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>11.48</v>
+      </c>
+      <c r="D20">
+        <v>-12</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>11.37</v>
+      </c>
+      <c r="D21">
+        <v>-12</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>11.3</v>
+      </c>
+      <c r="D22">
+        <v>-12</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>11.21</v>
+      </c>
+      <c r="D23">
+        <v>-12</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>11.11</v>
+      </c>
+      <c r="D24">
+        <v>-11.9</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>11.04</v>
+      </c>
+      <c r="D25">
+        <v>-11.9</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>10.92</v>
+      </c>
+      <c r="D26">
+        <v>-11.8</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>10.82</v>
+      </c>
+      <c r="D27">
+        <v>-11.8</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>10.74</v>
+      </c>
+      <c r="D28">
+        <v>-11.8</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>10.66</v>
+      </c>
+      <c r="D29">
+        <v>-11.7</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>10.61</v>
+      </c>
+      <c r="D30">
+        <v>-11.7</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>10.5</v>
+      </c>
+      <c r="D31">
+        <v>-11.7</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>10.4</v>
+      </c>
+      <c r="D32">
+        <v>-11.7</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>10.36</v>
+      </c>
+      <c r="D33">
+        <v>-11.6</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="D34">
+        <v>-11.6</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>10.11</v>
+      </c>
+      <c r="D35">
+        <v>-11.6</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="D36">
+        <v>-11.5</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>9.93</v>
+      </c>
+      <c r="D37">
+        <v>-11.5</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>9.83</v>
+      </c>
+      <c r="D38">
+        <v>-11.5</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>9.77</v>
+      </c>
+      <c r="D39">
+        <v>-11.5</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>9.68</v>
+      </c>
+      <c r="D40">
+        <v>-11.4</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="D41">
+        <v>-11.4</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="D42">
+        <v>-11.3</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="D43">
+        <v>-11.3</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>9.27</v>
+      </c>
+      <c r="D44">
+        <v>-11.3</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>9.14</v>
+      </c>
+      <c r="D45">
+        <v>-11.2</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>9.06</v>
+      </c>
+      <c r="D46">
+        <v>-11.2</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="D47">
+        <v>-11.1</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>8.84</v>
+      </c>
+      <c r="D48">
+        <v>-11.1</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="D49">
+        <v>-11</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="D50">
+        <v>-11</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="D51">
+        <v>-11</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="D52">
+        <v>-11</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>8.42</v>
+      </c>
+      <c r="D53">
+        <v>-10.9</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>8.31</v>
+      </c>
+      <c r="D54">
+        <v>-10.9</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>8.17</v>
+      </c>
+      <c r="D55">
+        <v>-10.8</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>8.11</v>
+      </c>
+      <c r="D56">
+        <v>-10.8</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>8.02</v>
+      </c>
+      <c r="D57">
+        <v>-10.8</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>7.9</v>
+      </c>
+      <c r="D58">
+        <v>-10.8</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>7.86</v>
+      </c>
+      <c r="D59">
+        <v>-10.7</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>7.73</v>
+      </c>
+      <c r="D60">
+        <v>-10.7</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>7.64</v>
+      </c>
+      <c r="D61">
+        <v>-10.6</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>7.57</v>
+      </c>
+      <c r="D62">
+        <v>-10.6</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>7.47</v>
+      </c>
+      <c r="D63">
+        <v>-10.5</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>7.36</v>
+      </c>
+      <c r="D64">
+        <v>-10.5</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>7.29</v>
+      </c>
+      <c r="D65">
+        <v>-10.4</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>7.21</v>
+      </c>
+      <c r="D66">
+        <v>-10.4</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>7.08</v>
+      </c>
+      <c r="D67">
+        <v>-10.4</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="1">D67*-1</f>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>7.01</v>
+      </c>
+      <c r="D68">
+        <v>-10.4</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>6.92</v>
+      </c>
+      <c r="D69">
+        <v>-10.3</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>6.86</v>
+      </c>
+      <c r="D70">
+        <v>-10.3</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>6.71</v>
+      </c>
+      <c r="D71">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>6.61</v>
+      </c>
+      <c r="D72">
+        <v>-10.1</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>6.54</v>
+      </c>
+      <c r="D73">
+        <v>-10.1</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>6.42</v>
+      </c>
+      <c r="D74">
+        <v>-10.1</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>6.32</v>
+      </c>
+      <c r="D75">
+        <v>-10.1</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>6.26</v>
+      </c>
+      <c r="D76">
+        <v>-10</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>6.14</v>
+      </c>
+      <c r="D77">
+        <v>-9.9</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>6.02</v>
+      </c>
+      <c r="D78">
+        <v>-9.9</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>5.94</v>
+      </c>
+      <c r="D79">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>5.82</v>
+      </c>
+      <c r="D80">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>5.73</v>
+      </c>
+      <c r="D81">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>5.66</v>
+      </c>
+      <c r="D82">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>5.56</v>
+      </c>
+      <c r="D83">
+        <v>-9.6</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>5.46</v>
+      </c>
+      <c r="D84">
+        <v>-9.6</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>5.37</v>
+      </c>
+      <c r="D85">
+        <v>-9.5</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>5.3</v>
+      </c>
+      <c r="D86">
+        <v>-9.5</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>5.16</v>
+      </c>
+      <c r="D87">
+        <v>-9.4</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="D88">
+        <v>-9.4</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>4.99</v>
+      </c>
+      <c r="D89">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D90">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>4.79</v>
+      </c>
+      <c r="D91">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>4.72</v>
+      </c>
+      <c r="D92">
+        <v>-9.1</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>4.59</v>
+      </c>
+      <c r="D93">
+        <v>-9.1</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>4.53</v>
+      </c>
+      <c r="D94">
+        <v>-9</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="D95">
+        <v>-8.9</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="D96">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>4.21</v>
+      </c>
+      <c r="D97">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>4.16</v>
+      </c>
+      <c r="D98">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="D99">
+        <v>-8.6</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>3.92</v>
+      </c>
+      <c r="D100">
+        <v>-8.5</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>3.85</v>
+      </c>
+      <c r="D101">
+        <v>-8.4</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>3.76</v>
+      </c>
+      <c r="D102">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>3.63</v>
+      </c>
+      <c r="D103">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>3.6</v>
+      </c>
+      <c r="D104">
+        <v>-8.1</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>3.46</v>
+      </c>
+      <c r="D105">
+        <v>-8</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>3.36</v>
+      </c>
+      <c r="D106">
+        <v>-7.9</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>3.3</v>
+      </c>
+      <c r="D107">
+        <v>-7.8</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="1"/>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>3.22</v>
+      </c>
+      <c r="D108">
+        <v>-7.7</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="1"/>
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>3.1</v>
+      </c>
+      <c r="D109">
+        <v>-7.6</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>3.02</v>
+      </c>
+      <c r="D110">
+        <v>-7.5</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>2.93</v>
+      </c>
+      <c r="D111">
+        <v>-7.3</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="1"/>
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>2.81</v>
+      </c>
+      <c r="D112">
+        <v>-7.2</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="1"/>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>2.77</v>
+      </c>
+      <c r="D113">
+        <v>-7.1</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="1"/>
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>2.67</v>
+      </c>
+      <c r="D114">
+        <v>-6.9</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="1"/>
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>2.54</v>
+      </c>
+      <c r="D115">
+        <v>-6.8</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="1"/>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>2.5</v>
+      </c>
+      <c r="D116">
+        <v>-6.6</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="1"/>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>2.35</v>
+      </c>
+      <c r="D117">
+        <v>-6.5</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D118">
+        <v>-6.3</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="1"/>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D119">
+        <v>-6.1</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="1"/>
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>2.08</v>
+      </c>
+      <c r="D120">
+        <v>-5.9</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="1"/>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>1.95</v>
+      </c>
+      <c r="D121">
+        <v>-5.8</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="1"/>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>1.88</v>
+      </c>
+      <c r="D122">
+        <v>-5.6</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="1"/>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>1.79</v>
+      </c>
+      <c r="D123">
+        <v>-5.4</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="1"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>1.72</v>
+      </c>
+      <c r="D124">
+        <v>-5.2</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>1.59</v>
+      </c>
+      <c r="D125">
+        <v>-5</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>1.48</v>
+      </c>
+      <c r="D126">
+        <v>-4.7</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="1"/>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>1.38</v>
+      </c>
+      <c r="D127">
+        <v>-4.5</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>1.32</v>
+      </c>
+      <c r="D128">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>1.22</v>
+      </c>
+      <c r="D129">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="1"/>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D130">
+        <v>-3.9</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="1"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>1.06</v>
+      </c>
+      <c r="D131">
+        <v>-3.7</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ref="E131:E194" si="2">D131*-1</f>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>0.92</v>
+      </c>
+      <c r="D132">
+        <v>-3.3</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="2"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>0.82</v>
+      </c>
+      <c r="D133">
+        <v>-2.9</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="2"/>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>0.76</v>
+      </c>
+      <c r="D134">
+        <v>-2.7</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="2"/>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>0.64</v>
+      </c>
+      <c r="D135">
+        <v>-2.4</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="136" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>0.54</v>
+      </c>
+      <c r="D136">
+        <v>-2</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>0.51</v>
+      </c>
+      <c r="D137">
+        <v>-1.4</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="138" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <v>0.38</v>
+      </c>
+      <c r="D138">
+        <v>-1.3</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="139" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>0.27</v>
+      </c>
+      <c r="D139">
+        <v>-0.7</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>0.2</v>
+      </c>
+      <c r="D140">
+        <v>-0.2</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="141" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>0.1</v>
+      </c>
+      <c r="D141">
+        <v>0.2</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="2"/>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="142" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>-0.03</v>
+      </c>
+      <c r="D142">
+        <v>0.5</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="143" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <v>-0.08</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="144" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>-0.18</v>
+      </c>
+      <c r="D144">
+        <v>1.6</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="2"/>
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>-0.27</v>
+      </c>
+      <c r="D145">
+        <v>1.7</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="2"/>
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="146" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>-0.4</v>
+      </c>
+      <c r="D146">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="2"/>
+        <v>-2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>-0.46</v>
+      </c>
+      <c r="D147">
+        <v>2.8</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="2"/>
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="148" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="D148">
+        <v>3.1</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="2"/>
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="149" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>-0.7</v>
+      </c>
+      <c r="D149">
+        <v>3.4</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="2"/>
+        <v>-3.4</v>
+      </c>
+    </row>
+    <row r="150" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <v>-0.76</v>
+      </c>
+      <c r="D150">
+        <v>3.7</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="2"/>
+        <v>-3.7</v>
+      </c>
+    </row>
+    <row r="151" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <v>-0.86</v>
+      </c>
+      <c r="D151">
+        <v>4</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="152" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <v>-0.92</v>
+      </c>
+      <c r="D152">
+        <v>4.2</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="2"/>
+        <v>-4.2</v>
+      </c>
+    </row>
+    <row r="153" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <v>-1.02</v>
+      </c>
+      <c r="D153">
+        <v>4.5</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="2"/>
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="154" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="D154">
+        <v>4.8</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="2"/>
+        <v>-4.8</v>
+      </c>
+    </row>
+    <row r="155" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <v>-1.25</v>
+      </c>
+      <c r="D155">
+        <v>5</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="156" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <v>-1.28</v>
+      </c>
+      <c r="D156">
+        <v>5.2</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="2"/>
+        <v>-5.2</v>
+      </c>
+    </row>
+    <row r="157" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <v>-1.43</v>
+      </c>
+      <c r="D157">
+        <v>5.4</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="2"/>
+        <v>-5.4</v>
+      </c>
+    </row>
+    <row r="158" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <v>-1.53</v>
+      </c>
+      <c r="D158">
+        <v>5.7</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="2"/>
+        <v>-5.7</v>
+      </c>
+    </row>
+    <row r="159" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <v>-1.6</v>
+      </c>
+      <c r="D159">
+        <v>5.7</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="2"/>
+        <v>-5.7</v>
+      </c>
+    </row>
+    <row r="160" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>-1.7</v>
+      </c>
+      <c r="D160">
+        <v>6</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="161" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>-1.83</v>
+      </c>
+      <c r="D161">
+        <v>6.2</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="2"/>
+        <v>-6.2</v>
+      </c>
+    </row>
+    <row r="162" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>-1.89</v>
+      </c>
+      <c r="D162">
+        <v>6.4</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="2"/>
+        <v>-6.4</v>
+      </c>
+    </row>
+    <row r="163" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>-1.98</v>
+      </c>
+      <c r="D163">
+        <v>6.4</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="2"/>
+        <v>-6.4</v>
+      </c>
+    </row>
+    <row r="164" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <v>-2.12</v>
+      </c>
+      <c r="D164">
+        <v>6.6</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="2"/>
+        <v>-6.6</v>
+      </c>
+    </row>
+    <row r="165" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <v>-2.15</v>
+      </c>
+      <c r="D165">
+        <v>6.8</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="2"/>
+        <v>-6.8</v>
+      </c>
+    </row>
+    <row r="166" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <v>-2.25</v>
+      </c>
+      <c r="D166">
+        <v>6.9</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="2"/>
+        <v>-6.9</v>
+      </c>
+    </row>
+    <row r="167" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <v>-2.38</v>
+      </c>
+      <c r="D167">
+        <v>7</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="168" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>-2.44</v>
+      </c>
+      <c r="D168">
+        <v>7.2</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="2"/>
+        <v>-7.2</v>
+      </c>
+    </row>
+    <row r="169" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="D169">
+        <v>7.4</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="2"/>
+        <v>-7.4</v>
+      </c>
+    </row>
+    <row r="170" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>-2.62</v>
+      </c>
+      <c r="D170">
+        <v>7.5</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="2"/>
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="171" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>-2.73</v>
+      </c>
+      <c r="D171">
+        <v>7.6</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="2"/>
+        <v>-7.6</v>
+      </c>
+    </row>
+    <row r="172" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <v>-2.86</v>
+      </c>
+      <c r="D172">
+        <v>7.8</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="2"/>
+        <v>-7.8</v>
+      </c>
+    </row>
+    <row r="173" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <v>-2.9</v>
+      </c>
+      <c r="D173">
+        <v>7.9</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="2"/>
+        <v>-7.9</v>
+      </c>
+    </row>
+    <row r="174" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <v>-3.04</v>
+      </c>
+      <c r="D174">
+        <v>8</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="2"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="175" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <v>-3.12</v>
+      </c>
+      <c r="D175">
+        <v>8.1</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="2"/>
+        <v>-8.1</v>
+      </c>
+    </row>
+    <row r="176" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <v>-3.2</v>
+      </c>
+      <c r="D176">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="2"/>
+        <v>-8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <v>-3.27</v>
+      </c>
+      <c r="D177">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="2"/>
+        <v>-8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <v>-3.42</v>
+      </c>
+      <c r="D178">
+        <v>8.4</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="2"/>
+        <v>-8.4</v>
+      </c>
+    </row>
+    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <v>-3.52</v>
+      </c>
+      <c r="D179">
+        <v>8.5</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="2"/>
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="180" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <v>-3.59</v>
+      </c>
+      <c r="D180">
+        <v>8.6</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="2"/>
+        <v>-8.6</v>
+      </c>
+    </row>
+    <row r="181" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C181">
+        <v>-3.68</v>
+      </c>
+      <c r="D181">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="2"/>
+        <v>-8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <v>-3.77</v>
+      </c>
+      <c r="D182">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="2"/>
+        <v>-8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="183" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <v>-3.91</v>
+      </c>
+      <c r="D183">
+        <v>8.9</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="2"/>
+        <v>-8.9</v>
+      </c>
+    </row>
+    <row r="184" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C184">
+        <v>-3.94</v>
+      </c>
+      <c r="D184">
+        <v>8.9</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="2"/>
+        <v>-8.9</v>
+      </c>
+    </row>
+    <row r="185" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <v>-4.09</v>
+      </c>
+      <c r="D185">
+        <v>9.1</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="2"/>
+        <v>-9.1</v>
+      </c>
+    </row>
+    <row r="186" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <v>-4.2</v>
+      </c>
+      <c r="D186">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="2"/>
+        <v>-9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="187" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C187">
+        <v>-4.2699999999999996</v>
+      </c>
+      <c r="D187">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="2"/>
+        <v>-9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="188" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <v>-4.3899999999999997</v>
+      </c>
+      <c r="D188">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="2"/>
+        <v>-9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="189" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <v>-4.4800000000000004</v>
+      </c>
+      <c r="D189">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="2"/>
+        <v>-9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="190" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <v>-4.54</v>
+      </c>
+      <c r="D190">
+        <v>9.4</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="2"/>
+        <v>-9.4</v>
+      </c>
+    </row>
+    <row r="191" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <v>-4.6399999999999997</v>
+      </c>
+      <c r="D191">
+        <v>9.4</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="2"/>
+        <v>-9.4</v>
+      </c>
+    </row>
+    <row r="192" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C192">
+        <v>-4.7699999999999996</v>
+      </c>
+      <c r="D192">
+        <v>9.5</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="2"/>
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="193" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C193">
+        <v>-4.8</v>
+      </c>
+      <c r="D193">
+        <v>9.5</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="2"/>
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="194" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C194">
+        <v>-4.93</v>
+      </c>
+      <c r="D194">
+        <v>9.6</v>
+      </c>
+      <c r="E194">
+        <f t="shared" si="2"/>
+        <v>-9.6</v>
+      </c>
+    </row>
+    <row r="195" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C195">
+        <v>-5.03</v>
+      </c>
+      <c r="D195">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E195">
+        <f t="shared" ref="E195:E258" si="3">D195*-1</f>
+        <v>-9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="196" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C196">
+        <v>-5.1100000000000003</v>
+      </c>
+      <c r="D196">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="3"/>
+        <v>-9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="197" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C197">
+        <v>-5.21</v>
+      </c>
+      <c r="D197">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="3"/>
+        <v>-9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="198" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C198">
+        <v>-5.34</v>
+      </c>
+      <c r="D198">
+        <v>9.9</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="3"/>
+        <v>-9.9</v>
+      </c>
+    </row>
+    <row r="199" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <v>-5.4</v>
+      </c>
+      <c r="D199">
+        <v>9.9</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="3"/>
+        <v>-9.9</v>
+      </c>
+    </row>
+    <row r="200" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C200">
+        <v>-5.5</v>
+      </c>
+      <c r="D200">
+        <v>10</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="201" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C201">
+        <v>-5.61</v>
+      </c>
+      <c r="D201">
+        <v>10</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="202" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C202">
+        <v>-5.68</v>
+      </c>
+      <c r="D202">
+        <v>10.1</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="3"/>
+        <v>-10.1</v>
+      </c>
+    </row>
+    <row r="203" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C203">
+        <v>-5.78</v>
+      </c>
+      <c r="D203">
+        <v>10.1</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="3"/>
+        <v>-10.1</v>
+      </c>
+    </row>
+    <row r="204" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C204">
+        <v>-5.88</v>
+      </c>
+      <c r="D204">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="3"/>
+        <v>-10.199999999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C205">
+        <v>-5.95</v>
+      </c>
+      <c r="D205">
+        <v>10.3</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="3"/>
+        <v>-10.3</v>
+      </c>
+    </row>
+    <row r="206" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C206">
+        <v>-6.05</v>
+      </c>
+      <c r="D206">
+        <v>10.3</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="3"/>
+        <v>-10.3</v>
+      </c>
+    </row>
+    <row r="207" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C207">
+        <v>-6.2</v>
+      </c>
+      <c r="D207">
+        <v>10.3</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="3"/>
+        <v>-10.3</v>
+      </c>
+    </row>
+    <row r="208" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C208">
+        <v>-6.26</v>
+      </c>
+      <c r="D208">
+        <v>10.4</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="3"/>
+        <v>-10.4</v>
+      </c>
+    </row>
+    <row r="209" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C209">
+        <v>-6.38</v>
+      </c>
+      <c r="D209">
+        <v>10.4</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="3"/>
+        <v>-10.4</v>
+      </c>
+    </row>
+    <row r="210" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C210">
+        <v>-6.45</v>
+      </c>
+      <c r="D210">
+        <v>10.4</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="3"/>
+        <v>-10.4</v>
+      </c>
+    </row>
+    <row r="211" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C211">
+        <v>-6.54</v>
+      </c>
+      <c r="D211">
+        <v>10.5</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="3"/>
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="212" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C212">
+        <v>-6.69</v>
+      </c>
+      <c r="D212">
+        <v>10.6</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="3"/>
+        <v>-10.6</v>
+      </c>
+    </row>
+    <row r="213" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C213">
+        <v>-6.73</v>
+      </c>
+      <c r="D213">
+        <v>10.7</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="3"/>
+        <v>-10.7</v>
+      </c>
+    </row>
+    <row r="214" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C214">
+        <v>-6.84</v>
+      </c>
+      <c r="D214">
+        <v>10.7</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="3"/>
+        <v>-10.7</v>
+      </c>
+    </row>
+    <row r="215" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C215">
+        <v>-6.9</v>
+      </c>
+      <c r="D215">
+        <v>10.7</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="3"/>
+        <v>-10.7</v>
+      </c>
+    </row>
+    <row r="216" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C216">
+        <v>-7</v>
+      </c>
+      <c r="D216">
+        <v>10.8</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="3"/>
+        <v>-10.8</v>
+      </c>
+    </row>
+    <row r="217" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C217">
+        <v>-7.14</v>
+      </c>
+      <c r="D217">
+        <v>10.8</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="3"/>
+        <v>-10.8</v>
+      </c>
+    </row>
+    <row r="218" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C218">
+        <v>-7.23</v>
+      </c>
+      <c r="D218">
+        <v>10.9</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="3"/>
+        <v>-10.9</v>
+      </c>
+    </row>
+    <row r="219" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C219">
+        <v>-7.27</v>
+      </c>
+      <c r="D219">
+        <v>10.8</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="3"/>
+        <v>-10.8</v>
+      </c>
+    </row>
+    <row r="220" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C220">
+        <v>-7.37</v>
+      </c>
+      <c r="D220">
+        <v>10.8</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="3"/>
+        <v>-10.8</v>
+      </c>
+    </row>
+    <row r="221" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C221">
+        <v>-7.51</v>
+      </c>
+      <c r="D221">
+        <v>10.9</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="3"/>
+        <v>-10.9</v>
+      </c>
+    </row>
+    <row r="222" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C222">
+        <v>-7.55</v>
+      </c>
+      <c r="D222">
+        <v>11</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="3"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="223" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C223">
+        <v>-7.66</v>
+      </c>
+      <c r="D223">
+        <v>11.1</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="3"/>
+        <v>-11.1</v>
+      </c>
+    </row>
+    <row r="224" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C224">
+        <v>-7.82</v>
+      </c>
+      <c r="D224">
+        <v>11.1</v>
+      </c>
+      <c r="E224">
+        <f t="shared" si="3"/>
+        <v>-11.1</v>
+      </c>
+    </row>
+    <row r="225" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C225">
+        <v>-7.86</v>
+      </c>
+      <c r="D225">
+        <v>11.1</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="3"/>
+        <v>-11.1</v>
+      </c>
+    </row>
+    <row r="226" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C226">
+        <v>-7.97</v>
+      </c>
+      <c r="D226">
+        <v>11.2</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="3"/>
+        <v>-11.2</v>
+      </c>
+    </row>
+    <row r="227" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C227">
+        <v>-8.11</v>
+      </c>
+      <c r="D227">
+        <v>11.2</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="3"/>
+        <v>-11.2</v>
+      </c>
+    </row>
+    <row r="228" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C228">
+        <v>-8.15</v>
+      </c>
+      <c r="D228">
+        <v>11.2</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="3"/>
+        <v>-11.2</v>
+      </c>
+    </row>
+    <row r="229" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C229">
+        <v>-8.2899999999999991</v>
+      </c>
+      <c r="D229">
+        <v>11.3</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="3"/>
+        <v>-11.3</v>
+      </c>
+    </row>
+    <row r="230" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C230">
+        <v>-8.39</v>
+      </c>
+      <c r="D230">
+        <v>11.3</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="3"/>
+        <v>-11.3</v>
+      </c>
+    </row>
+    <row r="231" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C231">
+        <v>-8.42</v>
+      </c>
+      <c r="D231">
+        <v>11.3</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="3"/>
+        <v>-11.3</v>
+      </c>
+    </row>
+    <row r="232" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C232">
+        <v>-8.57</v>
+      </c>
+      <c r="D232">
+        <v>11.4</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="3"/>
+        <v>-11.4</v>
+      </c>
+    </row>
+    <row r="233" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C233">
+        <v>-8.67</v>
+      </c>
+      <c r="D233">
+        <v>11.5</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="3"/>
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="234" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C234">
+        <v>-8.74</v>
+      </c>
+      <c r="D234">
+        <v>11.6</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="3"/>
+        <v>-11.6</v>
+      </c>
+    </row>
+    <row r="235" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C235">
+        <v>-8.84</v>
+      </c>
+      <c r="D235">
+        <v>11.6</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="3"/>
+        <v>-11.6</v>
+      </c>
+    </row>
+    <row r="236" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C236">
+        <v>-8.94</v>
+      </c>
+      <c r="D236">
+        <v>11.6</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="3"/>
+        <v>-11.6</v>
+      </c>
+    </row>
+    <row r="237" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C237">
+        <v>-9</v>
+      </c>
+      <c r="D237">
+        <v>11.6</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="3"/>
+        <v>-11.6</v>
+      </c>
+    </row>
+    <row r="238" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C238">
+        <v>-9.1</v>
+      </c>
+      <c r="D238">
+        <v>11.6</v>
+      </c>
+      <c r="E238">
+        <f t="shared" si="3"/>
+        <v>-11.6</v>
+      </c>
+    </row>
+    <row r="239" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C239">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="D239">
+        <v>11.7</v>
+      </c>
+      <c r="E239">
+        <f t="shared" si="3"/>
+        <v>-11.7</v>
+      </c>
+    </row>
+    <row r="240" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C240">
+        <v>-9.2799999999999994</v>
+      </c>
+      <c r="D240">
+        <v>11.7</v>
+      </c>
+      <c r="E240">
+        <f t="shared" si="3"/>
+        <v>-11.7</v>
+      </c>
+    </row>
+    <row r="241" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C241">
+        <v>-9.42</v>
+      </c>
+      <c r="D241">
+        <v>11.7</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="3"/>
+        <v>-11.7</v>
+      </c>
+    </row>
+    <row r="242" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C242">
+        <v>-9.5</v>
+      </c>
+      <c r="D242">
+        <v>11.8</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="3"/>
+        <v>-11.8</v>
+      </c>
+    </row>
+    <row r="243" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C243">
+        <v>-9.57</v>
+      </c>
+      <c r="D243">
+        <v>11.8</v>
+      </c>
+      <c r="E243">
+        <f t="shared" si="3"/>
+        <v>-11.8</v>
+      </c>
+    </row>
+    <row r="244" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C244">
+        <v>-9.68</v>
+      </c>
+      <c r="D244">
+        <v>11.8</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="3"/>
+        <v>-11.8</v>
+      </c>
+    </row>
+    <row r="245" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C245">
+        <v>-9.77</v>
+      </c>
+      <c r="D245">
+        <v>11.9</v>
+      </c>
+      <c r="E245">
+        <f t="shared" si="3"/>
+        <v>-11.9</v>
+      </c>
+    </row>
+    <row r="246" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C246">
+        <v>-9.84</v>
+      </c>
+      <c r="D246">
+        <v>11.9</v>
+      </c>
+      <c r="E246">
+        <f t="shared" si="3"/>
+        <v>-11.9</v>
+      </c>
+    </row>
+    <row r="247" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C247">
+        <v>-9.94</v>
+      </c>
+      <c r="D247">
+        <v>11.9</v>
+      </c>
+      <c r="E247">
+        <f t="shared" si="3"/>
+        <v>-11.9</v>
+      </c>
+    </row>
+    <row r="248" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C248">
+        <v>-10.050000000000001</v>
+      </c>
+      <c r="D248">
+        <v>12</v>
+      </c>
+      <c r="E248">
+        <f t="shared" si="3"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="249" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C249">
+        <v>-10.11</v>
+      </c>
+      <c r="D249">
+        <v>12.1</v>
+      </c>
+      <c r="E249">
+        <f t="shared" si="3"/>
+        <v>-12.1</v>
+      </c>
+    </row>
+    <row r="250" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C250">
+        <v>-10.210000000000001</v>
+      </c>
+      <c r="D250">
+        <v>12.1</v>
+      </c>
+      <c r="E250">
+        <f t="shared" si="3"/>
+        <v>-12.1</v>
+      </c>
+    </row>
+    <row r="251" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C251">
+        <v>-10.32</v>
+      </c>
+      <c r="D251">
+        <v>12.2</v>
+      </c>
+      <c r="E251">
+        <f t="shared" si="3"/>
+        <v>-12.2</v>
+      </c>
+    </row>
+    <row r="252" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C252">
+        <v>-10.46</v>
+      </c>
+      <c r="D252">
+        <v>12.2</v>
+      </c>
+      <c r="E252">
+        <f t="shared" si="3"/>
+        <v>-12.2</v>
+      </c>
+    </row>
+    <row r="253" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C253">
+        <v>-10.52</v>
+      </c>
+      <c r="D253">
+        <v>12.2</v>
+      </c>
+      <c r="E253">
+        <f t="shared" si="3"/>
+        <v>-12.2</v>
+      </c>
+    </row>
+    <row r="254" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C254">
+        <v>-10.58</v>
+      </c>
+      <c r="D254">
+        <v>12.2</v>
+      </c>
+      <c r="E254">
+        <f t="shared" si="3"/>
+        <v>-12.2</v>
+      </c>
+    </row>
+    <row r="255" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C255">
+        <v>-10.74</v>
+      </c>
+      <c r="D255">
+        <v>12.3</v>
+      </c>
+      <c r="E255">
+        <f t="shared" si="3"/>
+        <v>-12.3</v>
+      </c>
+    </row>
+    <row r="256" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C256">
+        <v>-10.78</v>
+      </c>
+      <c r="D256">
+        <v>12.3</v>
+      </c>
+      <c r="E256">
+        <f t="shared" si="3"/>
+        <v>-12.3</v>
+      </c>
+    </row>
+    <row r="257" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C257">
+        <v>-10.9</v>
+      </c>
+      <c r="D257">
+        <v>12.4</v>
+      </c>
+      <c r="E257">
+        <f t="shared" si="3"/>
+        <v>-12.4</v>
+      </c>
+    </row>
+    <row r="258" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C258">
+        <v>-11.04</v>
+      </c>
+      <c r="D258">
+        <v>12.4</v>
+      </c>
+      <c r="E258">
+        <f t="shared" si="3"/>
+        <v>-12.4</v>
+      </c>
+    </row>
+    <row r="259" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C259">
+        <v>-11.11</v>
+      </c>
+      <c r="D259">
+        <v>12.4</v>
+      </c>
+      <c r="E259">
+        <f t="shared" ref="E259:E280" si="4">D259*-1</f>
+        <v>-12.4</v>
+      </c>
+    </row>
+    <row r="260" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C260">
+        <v>-11.22</v>
+      </c>
+      <c r="D260">
+        <v>12.5</v>
+      </c>
+      <c r="E260">
+        <f t="shared" si="4"/>
+        <v>-12.5</v>
+      </c>
+    </row>
+    <row r="261" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C261">
+        <v>-11.31</v>
+      </c>
+      <c r="D261">
+        <v>12.5</v>
+      </c>
+      <c r="E261">
+        <f t="shared" si="4"/>
+        <v>-12.5</v>
+      </c>
+    </row>
+    <row r="262" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C262">
+        <v>-11.38</v>
+      </c>
+      <c r="D262">
+        <v>12.5</v>
+      </c>
+      <c r="E262">
+        <f t="shared" si="4"/>
+        <v>-12.5</v>
+      </c>
+    </row>
+    <row r="263" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C263">
+        <v>-11.48</v>
+      </c>
+      <c r="D263">
+        <v>12.6</v>
+      </c>
+      <c r="E263">
+        <f t="shared" si="4"/>
+        <v>-12.6</v>
+      </c>
+    </row>
+    <row r="264" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C264">
+        <v>-11.59</v>
+      </c>
+      <c r="D264">
+        <v>12.6</v>
+      </c>
+      <c r="E264">
+        <f t="shared" si="4"/>
+        <v>-12.6</v>
+      </c>
+    </row>
+    <row r="265" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C265">
+        <v>-11.73</v>
+      </c>
+      <c r="D265">
+        <v>12.7</v>
+      </c>
+      <c r="E265">
+        <f t="shared" si="4"/>
+        <v>-12.7</v>
+      </c>
+    </row>
+    <row r="266" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C266">
+        <v>-11.76</v>
+      </c>
+      <c r="D266">
+        <v>12.7</v>
+      </c>
+      <c r="E266">
+        <f t="shared" si="4"/>
+        <v>-12.7</v>
+      </c>
+    </row>
+    <row r="267" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C267">
+        <v>-11.9</v>
+      </c>
+      <c r="D267">
+        <v>12.7</v>
+      </c>
+      <c r="E267">
+        <f t="shared" si="4"/>
+        <v>-12.7</v>
+      </c>
+    </row>
+    <row r="268" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C268">
+        <v>-11.94</v>
+      </c>
+      <c r="D268">
+        <v>12.7</v>
+      </c>
+      <c r="E268">
+        <f t="shared" si="4"/>
+        <v>-12.7</v>
+      </c>
+    </row>
+    <row r="269" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C269">
+        <v>-12.06</v>
+      </c>
+      <c r="D269">
+        <v>12.7</v>
+      </c>
+      <c r="E269">
+        <f t="shared" si="4"/>
+        <v>-12.7</v>
+      </c>
+    </row>
+    <row r="270" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C270">
+        <v>-12.14</v>
+      </c>
+      <c r="D270">
+        <v>12.8</v>
+      </c>
+      <c r="E270">
+        <f t="shared" si="4"/>
+        <v>-12.8</v>
+      </c>
+    </row>
+    <row r="271" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C271">
+        <v>-12.2</v>
+      </c>
+      <c r="D271">
+        <v>12.8</v>
+      </c>
+      <c r="E271">
+        <f t="shared" si="4"/>
+        <v>-12.8</v>
+      </c>
+    </row>
+    <row r="272" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C272">
+        <v>-12.3</v>
+      </c>
+      <c r="D272">
+        <v>12.9</v>
+      </c>
+      <c r="E272">
+        <f t="shared" si="4"/>
+        <v>-12.9</v>
+      </c>
+    </row>
+    <row r="273" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C273">
+        <v>-12.38</v>
+      </c>
+      <c r="D273">
+        <v>12.9</v>
+      </c>
+      <c r="E273">
+        <f t="shared" si="4"/>
+        <v>-12.9</v>
+      </c>
+    </row>
+    <row r="274" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C274">
+        <v>-12.44</v>
+      </c>
+      <c r="D274">
+        <v>13</v>
+      </c>
+      <c r="E274">
+        <f t="shared" si="4"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="275" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C275">
+        <v>-12.54</v>
+      </c>
+      <c r="D275">
+        <v>13</v>
+      </c>
+      <c r="E275">
+        <f t="shared" si="4"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="276" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C276">
+        <v>-12.68</v>
+      </c>
+      <c r="D276">
+        <v>13</v>
+      </c>
+      <c r="E276">
+        <f t="shared" si="4"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="277" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C277">
+        <v>-12.71</v>
+      </c>
+      <c r="D277">
+        <v>13</v>
+      </c>
+      <c r="E277">
+        <f t="shared" si="4"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="278" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C278">
+        <v>-12.76</v>
+      </c>
+      <c r="D278">
+        <v>13</v>
+      </c>
+      <c r="E278">
+        <f t="shared" si="4"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="279" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C279">
+        <v>-12.77</v>
+      </c>
+      <c r="D279">
+        <v>13</v>
+      </c>
+      <c r="E279">
+        <f t="shared" si="4"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="280" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C280">
+        <v>-12.78</v>
+      </c>
+      <c r="D280">
+        <v>13</v>
+      </c>
+      <c r="E280">
+        <f t="shared" si="4"/>
+        <v>-13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/05_DvojnaSonda/data/DvojnaSonda.xlsx
+++ b/05_DvojnaSonda/data/DvojnaSonda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Desktop\Škola Mgr\Praktikum plazma\PraktikaPlazma\05_DvojnaSonda\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF87FAF-5867-4B16-8C63-C042066EB971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D070D1-7A25-43A9-9B2A-3026A5FFC3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30255" yWindow="5175" windowWidth="28800" windowHeight="15435" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -301,10 +301,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="0.000000000000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -432,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -472,6 +473,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -53623,7 +53625,7 @@
   <dimension ref="A1:U280"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54222,7 +54224,7 @@
         <v>25473.86638909375</v>
       </c>
     </row>
-    <row r="17" spans="3:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:21" ht="24" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>11.76</v>
       </c>
@@ -54250,8 +54252,12 @@
       <c r="R17" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <f>U16/11600</f>
+        <v>2.1960229645770473</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>11.65</v>
       </c>
@@ -54273,7 +54279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="3:18" ht="48" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:21" ht="48" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>11.58</v>
       </c>
@@ -54295,7 +54301,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="3:18" ht="48" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:21" ht="48" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>11.48</v>
       </c>
@@ -54317,7 +54323,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="3:18" ht="48" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:21" ht="48" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>11.37</v>
       </c>
@@ -54339,7 +54345,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>11.3</v>
       </c>
@@ -54361,7 +54367,7 @@
         <v>0.45571</v>
       </c>
     </row>
-    <row r="23" spans="3:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:21" ht="24" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>11.21</v>
       </c>
@@ -54383,7 +54389,7 @@
         <v>2.9163199999999997E-14</v>
       </c>
     </row>
-    <row r="24" spans="3:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:21" ht="24" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>11.11</v>
       </c>
@@ -54405,7 +54411,7 @@
         <v>0.99970999999999999</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>11.04</v>
       </c>
@@ -54427,7 +54433,7 @@
         <v>0.99970000000000003</v>
       </c>
     </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>10.92</v>
       </c>
@@ -54443,7 +54449,7 @@
         <v>1.1800000000000001E-5</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>10.82</v>
       </c>
@@ -54459,7 +54465,7 @@
         <v>1.1800000000000001E-5</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>10.74</v>
       </c>
@@ -54475,7 +54481,7 @@
         <v>1.1800000000000001E-5</v>
       </c>
     </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>10.66</v>
       </c>
@@ -54491,7 +54497,7 @@
         <v>1.17E-5</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>10.61</v>
       </c>
@@ -54507,7 +54513,7 @@
         <v>1.17E-5</v>
       </c>
     </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>10.5</v>
       </c>
@@ -54523,7 +54529,7 @@
         <v>1.17E-5</v>
       </c>
     </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>10.4</v>
       </c>
@@ -58517,12 +58523,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C26281-F7AD-46F4-841A-19540F033DCE}">
   <dimension ref="A1:U279"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="20" max="20" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -58845,7 +58852,7 @@
         <f>4*$K$13*0.00000001/($P$8*$P$4*$S$8)</f>
         <v>1836918056024.6831</v>
       </c>
-      <c r="T9" s="13">
+      <c r="T9" s="19">
         <f>4*$K$13*0.00000001/($P$8*$P$4*T8)</f>
         <v>1296156294234.6782</v>
       </c>
@@ -59053,7 +59060,7 @@
         <v>13171.493336556319</v>
       </c>
     </row>
-    <row r="17" spans="3:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:21" ht="24" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>11.67</v>
       </c>
@@ -59077,8 +59084,12 @@
       <c r="R17" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <f>U16/11600</f>
+        <v>1.1354735634962345</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>11.58</v>
       </c>
@@ -59096,7 +59107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="3:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:21" ht="24" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>11.51</v>
       </c>
@@ -59114,7 +59125,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="3:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:21" ht="24" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>11.41</v>
       </c>
@@ -59132,7 +59143,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="3:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:21" ht="24" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>11.31</v>
       </c>
@@ -59150,7 +59161,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>11.24</v>
       </c>
@@ -59168,7 +59179,7 @@
         <v>0.88134999999999997</v>
       </c>
     </row>
-    <row r="23" spans="3:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:21" ht="24" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>11.14</v>
       </c>
@@ -59186,7 +59197,7 @@
         <v>5.0459999999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="3:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:21" ht="24" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>11.01</v>
       </c>
@@ -59204,7 +59215,7 @@
         <v>0.99975000000000003</v>
       </c>
     </row>
-    <row r="25" spans="3:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:21" ht="24" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>10.95</v>
       </c>
@@ -59222,7 +59233,7 @@
         <v>0.99975000000000003</v>
       </c>
     </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>10.85</v>
       </c>
@@ -59234,7 +59245,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>10.72</v>
       </c>
@@ -59246,7 +59257,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>10.69</v>
       </c>
@@ -59258,7 +59269,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>10.56</v>
       </c>
@@ -59270,7 +59281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>10.47</v>
       </c>
@@ -59282,7 +59293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>10.41</v>
       </c>
@@ -59294,7 +59305,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>10.3</v>
       </c>
@@ -62279,11 +62290,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF28D5F-6605-473C-B5EA-026F6E245546}">
   <dimension ref="A1:U277"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView topLeftCell="K1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -62524,7 +62538,7 @@
         <f>4*K13*0.00000001/(P8*P4*S8)</f>
         <v>2723484560909.9551</v>
       </c>
-      <c r="T9" s="13">
+      <c r="T9" s="19">
         <f>4*$K$13*0.00000001/($P$8*$P$4*T8)</f>
         <v>1717369289212.0676</v>
       </c>
@@ -62722,7 +62736,7 @@
         <v>29060.97144188132</v>
       </c>
     </row>
-    <row r="17" spans="3:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:21" ht="24" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>11.42</v>
       </c>
@@ -62746,8 +62760,12 @@
       <c r="R17" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <f>U16/11600</f>
+        <v>2.5052561587828723</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>11.35</v>
       </c>
@@ -62765,7 +62783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="3:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:21" ht="24" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>11.25</v>
       </c>
@@ -62783,7 +62801,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="3:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:21" ht="24" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>11.11</v>
       </c>
@@ -62801,7 +62819,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="3:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:21" ht="24" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>11.08</v>
       </c>
@@ -62819,7 +62837,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>10.95</v>
       </c>
@@ -62837,7 +62855,7 @@
         <v>0.39945999999999998</v>
       </c>
     </row>
-    <row r="23" spans="3:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:21" ht="24" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>10.91</v>
       </c>
@@ -62855,7 +62873,7 @@
         <v>7.5146100000000002</v>
       </c>
     </row>
-    <row r="24" spans="3:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:21" ht="24" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>10.77</v>
       </c>
@@ -62873,7 +62891,7 @@
         <v>0.98758000000000001</v>
       </c>
     </row>
-    <row r="25" spans="3:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:21" ht="24" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>10.68</v>
       </c>
@@ -62891,7 +62909,7 @@
         <v>0.98743999999999998</v>
       </c>
     </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>10.64</v>
       </c>
@@ -62903,7 +62921,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>10.54</v>
       </c>
@@ -62915,7 +62933,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>10.4</v>
       </c>
@@ -62927,7 +62945,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>10.34</v>
       </c>
@@ -62939,7 +62957,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>10.25</v>
       </c>
@@ -62951,7 +62969,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>10.15</v>
       </c>
@@ -62963,7 +62981,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>10.09</v>
       </c>
@@ -65925,8 +65943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F866B8-21F3-439D-A299-AB6E16776C0F}">
   <dimension ref="A1:U281"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66459,7 +66477,7 @@
         <v>27140.241863264004</v>
       </c>
     </row>
-    <row r="17" spans="3:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:21" ht="24" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>11.81</v>
       </c>
@@ -66483,8 +66501,12 @@
       <c r="R17" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <f>U16/11600</f>
+        <v>2.3396760226951727</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>11.72</v>
       </c>
@@ -66502,7 +66524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="3:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:21" ht="24" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>11.6</v>
       </c>
@@ -66520,7 +66542,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="3:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:21" ht="24" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>11.53</v>
       </c>
@@ -66538,7 +66560,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="3:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:21" ht="24" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>11.43</v>
       </c>
@@ -66556,7 +66578,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>11.3</v>
       </c>
@@ -66574,7 +66596,7 @@
         <v>0.42773</v>
       </c>
     </row>
-    <row r="23" spans="3:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:21" ht="24" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>11.26</v>
       </c>
@@ -66592,7 +66614,7 @@
         <v>2.3483900000000002</v>
       </c>
     </row>
-    <row r="24" spans="3:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:21" ht="24" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>11.13</v>
       </c>
@@ -66610,7 +66632,7 @@
         <v>0.98765999999999998</v>
       </c>
     </row>
-    <row r="25" spans="3:18" ht="24" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:21" ht="24" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>11.03</v>
       </c>
@@ -66628,7 +66650,7 @@
         <v>0.98751999999999995</v>
       </c>
     </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>10.94</v>
       </c>
@@ -66640,7 +66662,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>10.87</v>
       </c>
@@ -66652,7 +66674,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>10.77</v>
       </c>
@@ -66664,7 +66686,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>10.7</v>
       </c>
@@ -66676,7 +66698,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>10.61</v>
       </c>
@@ -66688,7 +66710,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>10.51</v>
       </c>
@@ -66700,7 +66722,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>10.45</v>
       </c>
@@ -73355,7 +73377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC8F1A7-211D-4AD8-AFCB-905125A07919}">
   <dimension ref="A1:R1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -73479,7 +73501,7 @@
         <v>-31.1</v>
       </c>
       <c r="H11" s="15">
-        <f t="shared" ref="H10:H66" si="0">E11</f>
+        <f t="shared" ref="H11:H66" si="0">E11</f>
         <v>0.60268518518518521</v>
       </c>
     </row>

--- a/05_DvojnaSonda/data/DvojnaSonda.xlsx
+++ b/05_DvojnaSonda/data/DvojnaSonda.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Desktop\Škola Mgr\Praktikum plazma\PraktikaPlazma\05_DvojnaSonda\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\PraktikumPlazma\05_DvojnaSonda\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D070D1-7A25-43A9-9B2A-3026A5FFC3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AE9CCA-45A6-4CBE-9A15-C62A93C984FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30255" yWindow="5175" windowWidth="28800" windowHeight="15435" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -305,7 +305,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="0.000000000000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000E+00"/>
+    <numFmt numFmtId="167" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -473,7 +473,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -65943,8 +65943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F866B8-21F3-439D-A299-AB6E16776C0F}">
   <dimension ref="A1:U281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66595,6 +66595,9 @@
       <c r="R22" s="5">
         <v>0.42773</v>
       </c>
+      <c r="S22" s="5">
+        <v>0.42773</v>
+      </c>
     </row>
     <row r="23" spans="3:21" ht="24" x14ac:dyDescent="0.25">
       <c r="C23">
@@ -66612,6 +66615,9 @@
       </c>
       <c r="R23" s="5">
         <v>2.3483900000000002</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0.49</v>
       </c>
     </row>
     <row r="24" spans="3:21" ht="24" x14ac:dyDescent="0.25">

--- a/05_DvojnaSonda/data/DvojnaSonda.xlsx
+++ b/05_DvojnaSonda/data/DvojnaSonda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\PraktikumPlazma\05_DvojnaSonda\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Desktop\Škola Mgr\Praktikum plazma\PraktikaPlazma\05_DvojnaSonda\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AE9CCA-45A6-4CBE-9A15-C62A93C984FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7275ED6-FA1B-437F-AA9C-02F3D5046468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53624,8 +53624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9E16B5-6094-41DE-BA32-836C331B24B4}">
   <dimension ref="A1:U280"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53933,8 +53933,8 @@
         <v>58</v>
       </c>
       <c r="Q8" s="13">
-        <f>PI()*(Q12+Q13)^2+2*PI()*(Q12+Q13)*Q11</f>
-        <v>8.2247681069144186E-4</v>
+        <f>2*PI()*Q12*Q11</f>
+        <v>2.5132741228718346E-6</v>
       </c>
       <c r="S8" t="s">
         <v>59</v>
@@ -53986,11 +53986,11 @@
       </c>
       <c r="T9" s="13">
         <f>4*$L$13*0.00000001/($Q$8*$Q$4*$T$8)</f>
-        <v>1018897424290.6793</v>
+        <v>333437366153575.69</v>
       </c>
       <c r="U9" s="13">
         <f>4*$L$13*0.00000001/($Q$8*$Q$4*U8)</f>
-        <v>654400360721.38757</v>
+        <v>214154563047201.34</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="24" x14ac:dyDescent="0.25">
@@ -58523,7 +58523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C26281-F7AD-46F4-841A-19540F033DCE}">
   <dimension ref="A1:U279"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
@@ -58801,8 +58801,8 @@
         <v>58</v>
       </c>
       <c r="P8" s="13">
-        <f>PI()*(P12+P13)^2+2*PI()*(P12+P13)*P11</f>
-        <v>8.2247681069144186E-4</v>
+        <f>2*PI()*P12*P11</f>
+        <v>2.5132741228718346E-6</v>
       </c>
       <c r="R8" t="s">
         <v>59</v>
@@ -58850,11 +58850,11 @@
       </c>
       <c r="S9" s="13">
         <f>4*$K$13*0.00000001/($P$8*$P$4*$S$8)</f>
-        <v>1836918056024.6831</v>
-      </c>
-      <c r="T9" s="19">
+        <v>601137174203002.63</v>
+      </c>
+      <c r="T9" s="13">
         <f>4*$K$13*0.00000001/($P$8*$P$4*T8)</f>
-        <v>1296156294234.6782</v>
+        <v>424171197776717.94</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="24" x14ac:dyDescent="0.25">
@@ -62290,8 +62290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF28D5F-6605-473C-B5EA-026F6E245546}">
   <dimension ref="A1:U277"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62497,8 +62497,8 @@
         <v>58</v>
       </c>
       <c r="P8" s="13">
-        <f>PI()*(P12+P13)^2+2*PI()*(P12+P13)*P11</f>
-        <v>8.2247681069144186E-4</v>
+        <f>2*PI()*P11*P12</f>
+        <v>2.5132741228718346E-6</v>
       </c>
       <c r="R8" t="s">
         <v>59</v>
@@ -62536,11 +62536,11 @@
       </c>
       <c r="S9" s="13">
         <f>4*K13*0.00000001/(P8*P4*S8)</f>
-        <v>2723484560909.9551</v>
+        <v>891268833447035.75</v>
       </c>
       <c r="T9" s="19">
         <f>4*$K$13*0.00000001/($P$8*$P$4*T8)</f>
-        <v>1717369289212.0676</v>
+        <v>562014466673677.94</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="24" x14ac:dyDescent="0.25">
@@ -65943,8 +65943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F866B8-21F3-439D-A299-AB6E16776C0F}">
   <dimension ref="A1:U281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66217,8 +66217,8 @@
         <v>58</v>
       </c>
       <c r="P8" s="13">
-        <f>PI()*(P12+P13)^2+2*PI()*(P12+P13)*P11</f>
-        <v>8.2247681069144186E-4</v>
+        <f>2*PI()*P11*P12</f>
+        <v>2.5132741228718346E-6</v>
       </c>
       <c r="R8" t="s">
         <v>59</v>
@@ -66266,11 +66266,11 @@
       </c>
       <c r="S9" s="13">
         <f>4*K13*0.00000001/(P8*P4*S8)</f>
-        <v>1478818088743.9644</v>
+        <v>483947840847989.69</v>
       </c>
       <c r="T9" s="13">
         <f>4*$K$13*0.00000001/($P$8*$P$4*T8)</f>
-        <v>926173357683.02612</v>
+        <v>303093125593513.06</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="24" x14ac:dyDescent="0.25">
